--- a/Perguntas.xlsx
+++ b/Perguntas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unosilva\Documents\Projeto Meli Awards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8F1E25-BDE0-41FA-9B54-FF0A7E826FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2EA434-E247-4285-9BF6-12231F574D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0B2103C4-35FC-4316-8D4D-9B3168169EAD}"/>
   </bookViews>
@@ -493,14 +493,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F90E73-30FC-45FC-A0A5-5E80226F1A68}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="40.109375" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
